--- a/files/xlsx/Пассажиропотоки по городам 2018.xlsx
+++ b/files/xlsx/Пассажиропотоки по городам 2018.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotlyarov_m\Documents\MK\Dates\2024\202405\20240504\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotlyarov_m\Documents\MK\Dates\2024\202405\20240504\MAL\files\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724E9AE5-28B3-4570-A2CC-D73EB150CD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CD8C32-04BC-473A-B604-BD7198E3FA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="18" sheetId="5" r:id="rId1"/>
+    <sheet name="Пассажиропоток" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -772,10 +772,10 @@
     <t>Аэропорт</t>
   </si>
   <si>
-    <t>Пассажиры 2018</t>
-  </si>
-  <si>
-    <t>Груз 2018</t>
+    <t>Пассажиропоток</t>
+  </si>
+  <si>
+    <t>Грузопоток</t>
   </si>
 </sst>
 </file>
@@ -949,12 +949,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{96FADE79-1558-42E0-BCC8-0B92E8CBF351}" name="Таблица2" displayName="Таблица2" ref="A1:C249" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{96FADE79-1558-42E0-BCC8-0B92E8CBF351}" name="Таблица2" displayName="Таблица2" ref="A1:C249" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C249" xr:uid="{96FADE79-1558-42E0-BCC8-0B92E8CBF351}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{40BB5487-FE70-4249-A6F3-849D0AD9D177}" name="Аэропорт" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{271EBFD2-632A-4EE3-A97E-22769D2824C0}" name="Пассажиры 2018" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{6D4E9377-E024-4C08-904F-D4A23C11ADFD}" name="Груз 2018" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{40BB5487-FE70-4249-A6F3-849D0AD9D177}" name="Аэропорт" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{271EBFD2-632A-4EE3-A97E-22769D2824C0}" name="Пассажиропоток" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{6D4E9377-E024-4C08-904F-D4A23C11ADFD}" name="Грузопоток" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1250,14 +1250,14 @@
   <dimension ref="A1:C249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="15" style="1" customWidth="1"/>
     <col min="9" max="16384" width="48.33203125" style="1"/>
   </cols>
